--- a/Data/Skill/Skill.xlsx
+++ b/Data/Skill/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\BuildingBreaker\Data\Skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF28DDAE-53EA-47CF-8D85-A75688F1693E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F724D87-B3E3-4B96-93DD-F23459B0136E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3730" yWindow="4430" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3790" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>All</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,30 @@
   </si>
   <si>
     <t>UI/Skills/Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimationName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpSkill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,28 +480,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2731530C-0039-42AC-944F-DD348182ED49}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.75" style="1" customWidth="1"/>
-    <col min="4" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.58203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.58203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.08203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="2" max="4" width="25.75" style="1" customWidth="1"/>
+    <col min="5" max="10" width="15" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.58203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.58203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.08203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -490,8 +514,14 @@
       <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -502,10 +532,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -513,13 +549,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -527,10 +569,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
